--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Encounter</t>
+    <t>element:Element</t>
   </si>
   <si>
     <t>ID</t>
@@ -341,82 +341,14 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
 </sst>
 </file>
@@ -729,7 +661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -738,10 +670,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.75" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
@@ -752,7 +684,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -769,11 +701,11 @@
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="20.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="39.890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1364,13 +1296,11 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -1400,430 +1330,10 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>101</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="P9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -670,42 +670,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.45703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.3515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -670,42 +670,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.3515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.45703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -670,42 +670,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.45703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.3515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Encounter.status</t>
   </si>
   <si>
     <t>ID</t>
@@ -670,42 +670,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.3515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.45703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,7 +344,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis|20250624152100</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -695,7 +695,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.45703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.98828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,7 +344,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis|20250624152100</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -695,7 +695,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.98828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.45703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,7 +344,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-motif-non-realisation-evenement-cisis|20250624152100</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -695,7 +695,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.45703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.98828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/main/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
